--- a/input_excel/cafr_2021.xlsx
+++ b/input_excel/cafr_2021.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinbao/Documents/PyCharm/Colin-Project/input_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/Colin-Project/output_pdf_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA5F361-AB50-9746-B8CB-78F89F8CE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5BC8E6-BA88-C044-9471-2145B3E026BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset Allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="119-1" sheetId="1" r:id="rId1"/>
     <sheet name="120-1" sheetId="2" r:id="rId2"/>
     <sheet name="121-1" sheetId="3" r:id="rId3"/>
     <sheet name="122-1" sheetId="4" r:id="rId4"/>
     <sheet name="123-1" sheetId="5" r:id="rId5"/>
-    <sheet name="124-1" sheetId="6" r:id="rId6"/>
+    <sheet name="TOTAL TIME WEIGHTED RETURNS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -30,6 +30,10 @@
     <t>Investment	Section</t>
   </si>
   <si>
+    <t>Table	1:
+Asset	Allocation	as	of	August	31,	2021</t>
+  </si>
+  <si>
     <t>Policy	Range</t>
   </si>
   <si>
@@ -1703,11 +1707,6 @@
   </si>
   <si>
     <t>8.7	%</t>
-  </si>
-  <si>
-    <t>Table	1:
-Asset	Allocation	as	of	August	31,	2021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1772,13 +1771,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2084,9 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -2121,12 +2115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>558</v>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2134,10 +2128,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2145,13 +2139,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2159,22 +2153,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2182,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2190,25 +2184,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2216,22 +2210,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2239,22 +2233,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2262,22 +2256,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2285,25 +2279,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2311,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2319,25 +2313,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2345,22 +2339,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2368,22 +2362,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2391,25 +2385,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2417,7 +2411,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2425,25 +2419,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2451,22 +2445,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2474,22 +2468,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2497,25 +2491,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2523,25 +2517,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2549,7 +2543,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2557,25 +2551,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2583,22 +2577,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2606,19 +2600,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2626,19 +2620,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2646,7 +2640,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2654,13 +2648,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2668,10 +2662,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2679,10 +2673,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2690,10 +2684,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2701,10 +2695,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2712,10 +2706,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2723,13 +2717,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2737,13 +2731,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2751,7 +2745,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2804,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2815,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2823,22 +2817,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2846,7 +2840,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2854,25 +2848,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2880,22 +2874,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2903,22 +2897,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2926,22 +2920,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2949,22 +2943,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2972,25 +2966,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2998,7 +2992,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3006,25 +3000,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3032,22 +3026,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3055,22 +3049,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3078,25 +3072,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3104,7 +3098,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3112,25 +3106,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3138,7 +3132,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3146,22 +3140,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3169,22 +3163,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3192,25 +3186,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3218,22 +3212,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3241,7 +3235,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3249,22 +3243,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3272,25 +3266,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3298,22 +3292,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3321,25 +3315,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3347,7 +3341,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3355,7 +3349,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3363,7 +3357,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3371,7 +3365,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3421,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3429,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3437,22 +3431,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3460,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3468,22 +3462,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3491,22 +3485,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3514,22 +3508,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3537,22 +3531,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3560,22 +3554,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3583,22 +3577,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3606,7 +3600,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3614,22 +3608,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3637,22 +3631,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3660,22 +3654,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3683,22 +3677,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3706,7 +3700,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3714,22 +3708,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3737,22 +3731,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3760,22 +3754,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3783,22 +3777,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3806,22 +3800,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3829,7 +3823,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3837,22 +3831,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3860,22 +3854,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3883,22 +3877,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3906,22 +3900,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3929,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3937,7 +3931,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3945,7 +3939,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3953,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4003,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4011,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4019,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4027,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4035,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4043,10 +4037,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4054,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4065,19 +4059,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4085,22 +4079,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4108,19 +4102,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4128,19 +4122,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4148,19 +4142,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4168,19 +4162,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4188,19 +4182,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4208,19 +4202,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4228,19 +4222,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" t="s">
         <v>338</v>
-      </c>
-      <c r="E18" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G18" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4248,19 +4242,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4268,19 +4262,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4288,19 +4282,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4308,13 +4302,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4322,7 +4316,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4330,7 +4324,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4338,7 +4332,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4346,7 +4340,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4354,10 +4348,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4365,10 +4359,10 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4376,19 +4370,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4396,19 +4390,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4416,19 +4410,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4436,7 +4430,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4444,19 +4438,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4464,19 +4458,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G34" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4484,19 +4478,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4504,19 +4498,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4524,19 +4518,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4544,19 +4538,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
+        <v>393</v>
+      </c>
+      <c r="E38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F38" t="s">
+        <v>395</v>
+      </c>
+      <c r="G38" t="s">
         <v>392</v>
-      </c>
-      <c r="E38" t="s">
-        <v>393</v>
-      </c>
-      <c r="F38" t="s">
-        <v>394</v>
-      </c>
-      <c r="G38" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4564,19 +4558,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4584,19 +4578,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F40" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4604,16 +4598,16 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E41" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G41" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4621,13 +4615,13 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4673,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4681,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4689,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4697,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4705,7 +4699,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4713,7 +4707,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4721,7 +4715,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4729,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4740,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4748,10 +4742,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4759,10 +4753,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4770,10 +4764,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4781,10 +4775,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4792,7 +4786,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4800,10 +4794,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4811,10 +4805,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4822,10 +4816,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4833,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4841,10 +4835,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4852,10 +4846,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4863,10 +4857,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4874,7 +4868,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4882,10 +4876,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4893,7 +4887,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4901,10 +4895,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4912,7 +4906,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4920,10 +4914,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4931,10 +4925,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4942,7 +4936,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4950,7 +4944,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4958,7 +4952,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4966,7 +4960,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4974,7 +4968,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4982,7 +4976,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4990,7 +4984,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4998,7 +4992,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5006,7 +5000,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -5045,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5053,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5061,19 +5057,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5081,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5089,19 +5085,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5109,19 +5105,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5129,19 +5125,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5149,19 +5145,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5169,19 +5165,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5189,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5209,19 +5205,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5229,19 +5225,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5249,19 +5245,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5269,19 +5265,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15" t="s">
         <v>478</v>
-      </c>
-      <c r="C15" t="s">
-        <v>479</v>
-      </c>
-      <c r="D15" t="s">
-        <v>480</v>
-      </c>
-      <c r="E15" t="s">
-        <v>481</v>
-      </c>
-      <c r="F15" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5289,7 +5285,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5297,19 +5293,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5317,19 +5313,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5337,19 +5333,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5357,19 +5353,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5377,19 +5373,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5397,19 +5393,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5417,19 +5413,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D23" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E23" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5437,19 +5433,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5457,7 +5453,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5465,19 +5461,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5485,19 +5481,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5505,19 +5501,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5525,19 +5521,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5545,19 +5541,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D30" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E30" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5565,19 +5561,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5585,19 +5581,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E32" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F32" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5605,19 +5601,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E33" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F33" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5625,19 +5621,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D34" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E34" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5645,19 +5641,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C35" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E35" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5665,7 +5661,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5673,19 +5669,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D37" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5693,19 +5689,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C38" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D38" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F38" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5713,7 +5709,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5721,19 +5717,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E40" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F40" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5741,19 +5737,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D41" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E41" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F41" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
